--- a/Deposit & Withdrawal Sheet.xlsx
+++ b/Deposit & Withdrawal Sheet.xlsx
@@ -821,14 +821,14 @@
     <row r="1" ht="30.75" customHeight="1">
       <c r="A1" s="54" t="inlineStr">
         <is>
-          <t>Test Benefits Processing</t>
+          <t>Week 39 benefits</t>
         </is>
       </c>
     </row>
     <row r="2" ht="6.75" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Generated: 25/09/2025 13:06</t>
+          <t>Generated: 25/09/2025 13:07</t>
         </is>
       </c>
     </row>
@@ -910,17 +910,39 @@
       </c>
     </row>
     <row r="8" ht="14.1" customHeight="1">
-      <c r="A8" s="10" t="n"/>
-      <c r="B8" s="10" t="n"/>
-      <c r="C8" s="28" t="n"/>
+      <c r="A8" s="10" t="inlineStr">
+        <is>
+          <t>Client Name</t>
+        </is>
+      </c>
+      <c r="B8" s="10" t="inlineStr">
+        <is>
+          <t>SS Benefits</t>
+        </is>
+      </c>
+      <c r="C8" s="28" t="inlineStr">
+        <is>
+          <t>Date Processed</t>
+        </is>
+      </c>
       <c r="D8" s="10" t="n"/>
       <c r="E8" s="10" t="n"/>
       <c r="F8" s="11" t="n"/>
     </row>
     <row r="9" ht="14.1" customHeight="1">
-      <c r="A9" s="12" t="n"/>
-      <c r="B9" s="12" t="n"/>
-      <c r="C9" s="15" t="n"/>
+      <c r="A9" s="12" t="inlineStr">
+        <is>
+          <t>John Doe</t>
+        </is>
+      </c>
+      <c r="B9" s="12" t="n">
+        <v>300</v>
+      </c>
+      <c r="C9" s="15" t="inlineStr">
+        <is>
+          <t>25/09/2025</t>
+        </is>
+      </c>
       <c r="D9" s="13" t="n"/>
       <c r="E9" s="50" t="n"/>
       <c r="F9" s="13">
@@ -929,9 +951,19 @@
       </c>
     </row>
     <row r="10" ht="14.1" customHeight="1">
-      <c r="A10" s="12" t="n"/>
-      <c r="B10" s="12" t="n"/>
-      <c r="C10" s="15" t="n"/>
+      <c r="A10" s="12" t="inlineStr">
+        <is>
+          <t>Jane Smith</t>
+        </is>
+      </c>
+      <c r="B10" s="12" t="n">
+        <v>275.5</v>
+      </c>
+      <c r="C10" s="15" t="inlineStr">
+        <is>
+          <t>25/09/2025</t>
+        </is>
+      </c>
       <c r="D10" s="13" t="n"/>
       <c r="E10" s="50" t="n"/>
       <c r="F10" s="13">
@@ -951,24 +983,10 @@
       </c>
     </row>
     <row r="12" ht="14.1" customHeight="1">
-      <c r="A12" s="12" t="inlineStr">
-        <is>
-          <t>JACKSON</t>
-        </is>
-      </c>
-      <c r="B12" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">GORDON </t>
-        </is>
-      </c>
-      <c r="C12" s="12" t="inlineStr">
-        <is>
-          <t>THIE GRIANAGH</t>
-        </is>
-      </c>
-      <c r="D12" s="13" t="n">
-        <v>103868.44</v>
-      </c>
+      <c r="A12" s="12" t="n"/>
+      <c r="B12" s="12" t="n"/>
+      <c r="C12" s="12" t="n"/>
+      <c r="D12" s="13" t="n"/>
       <c r="E12" s="50" t="n"/>
       <c r="F12" s="13">
         <f>D12+E12</f>
@@ -976,24 +994,10 @@
       </c>
     </row>
     <row r="13" ht="14.1" customHeight="1">
-      <c r="A13" s="12" t="inlineStr">
-        <is>
-          <t>LEWIS</t>
-        </is>
-      </c>
-      <c r="B13" s="15" t="inlineStr">
-        <is>
-          <t>FLORENCE ANNE</t>
-        </is>
-      </c>
-      <c r="C13" s="15" t="inlineStr">
-        <is>
-          <t>BUNGALOW 1</t>
-        </is>
-      </c>
-      <c r="D13" s="13" t="n">
-        <v>66101.74000000003</v>
-      </c>
+      <c r="A13" s="12" t="n"/>
+      <c r="B13" s="15" t="n"/>
+      <c r="C13" s="15" t="n"/>
+      <c r="D13" s="13" t="n"/>
       <c r="E13" s="50" t="n"/>
       <c r="F13" s="13">
         <f>D13+E13</f>
@@ -1001,24 +1005,10 @@
       </c>
     </row>
     <row r="14" hidden="1" ht="14.1" customHeight="1">
-      <c r="A14" s="12" t="inlineStr">
-        <is>
-          <t>PATTON</t>
-        </is>
-      </c>
-      <c r="B14" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">PATIENCE </t>
-        </is>
-      </c>
-      <c r="C14" s="12" t="inlineStr">
-        <is>
-          <t>THIE NY AISHLISH</t>
-        </is>
-      </c>
-      <c r="D14" s="13" t="n">
-        <v>0</v>
-      </c>
+      <c r="A14" s="12" t="n"/>
+      <c r="B14" s="12" t="n"/>
+      <c r="C14" s="12" t="n"/>
+      <c r="D14" s="13" t="n"/>
       <c r="E14" s="50" t="n"/>
       <c r="F14" s="13">
         <f>D14+E14</f>

--- a/Deposit & Withdrawal Sheet.xlsx
+++ b/Deposit & Withdrawal Sheet.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17040" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="BENEFITS" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="OTHER CREDITS" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="WITHDRAWALS" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BENEFITS" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OTHER CREDITS" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WITHDRAWALS" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
   </externalReferences>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -454,8 +454,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="SUMMARY"/>
       <sheetName val="CLAGUE"/>
@@ -807,7 +807,7 @@
       <selection activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.125" defaultRowHeight="14.1" customHeight="1" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.125" defaultRowHeight="14.1" customHeight="1"/>
   <cols>
     <col width="20.625" customWidth="1" style="1" min="1" max="1"/>
     <col width="22.125" customWidth="1" style="1" min="2" max="2"/>
@@ -833,9 +833,10 @@
       </c>
     </row>
     <row r="3" ht="20.1" customHeight="1">
-      <c r="A3" s="62">
-        <f>"Benefits for the period " &amp; TEXT(TODAY()-10,"d""th"" mmmm yyyy")&amp; " to " &amp; TEXT(TODAY()-3,"d""th"" mmmm yyyy")</f>
-        <v/>
+      <c r="A3" s="62" t="inlineStr">
+        <is>
+          <t>Benefits period: 25/09/2025 to 01/10/2025</t>
+        </is>
       </c>
       <c r="B3" s="63" t="n"/>
       <c r="C3" s="63" t="n"/>
@@ -847,7 +848,10 @@
       <c r="A4" s="2" t="n"/>
       <c r="B4" s="2" t="n"/>
       <c r="C4" s="20" t="n"/>
-      <c r="D4" s="2" t="n"/>
+      <c r="D4" s="2">
+        <f>CLAGUE!D643</f>
+        <v/>
+      </c>
       <c r="E4" s="2" t="n"/>
       <c r="F4" s="3" t="n"/>
     </row>
@@ -855,7 +859,10 @@
       <c r="A5" s="2" t="n"/>
       <c r="B5" s="2" t="n"/>
       <c r="C5" s="20" t="n"/>
-      <c r="D5" s="4" t="n"/>
+      <c r="D5" s="4">
+        <f>COLLISTER!D147</f>
+        <v/>
+      </c>
       <c r="E5" s="5" t="n"/>
       <c r="F5" s="6" t="n"/>
     </row>
@@ -875,10 +882,9 @@
           <t>Date</t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
+      <c r="D6" s="4">
+        <f>CORKILL!D561</f>
+        <v/>
       </c>
       <c r="E6" s="5" t="n"/>
       <c r="F6" s="6" t="n"/>
@@ -897,10 +903,9 @@
           <t>25/09/2025</t>
         </is>
       </c>
-      <c r="D7" s="9" t="inlineStr">
-        <is>
-          <t>SS Benefits</t>
-        </is>
+      <c r="D7" s="9">
+        <f>DURRANT!D105</f>
+        <v/>
       </c>
       <c r="E7" s="9" t="n"/>
       <c r="F7" s="9" t="inlineStr">
@@ -925,7 +930,10 @@
           <t>Date Processed</t>
         </is>
       </c>
-      <c r="D8" s="10" t="n"/>
+      <c r="D8" s="10">
+        <f>DYER!D587</f>
+        <v/>
+      </c>
       <c r="E8" s="10" t="n"/>
       <c r="F8" s="11" t="n"/>
     </row>
@@ -943,7 +951,10 @@
           <t>25/09/2025</t>
         </is>
       </c>
-      <c r="D9" s="13" t="n"/>
+      <c r="D9" s="13">
+        <f>JACKSON!D623</f>
+        <v/>
+      </c>
       <c r="E9" s="50" t="n"/>
       <c r="F9" s="13">
         <f>D9+E9</f>
@@ -964,7 +975,10 @@
           <t>25/09/2025</t>
         </is>
       </c>
-      <c r="D10" s="13" t="n"/>
+      <c r="D10" s="13">
+        <f>JONES!D7</f>
+        <v/>
+      </c>
       <c r="E10" s="50" t="n"/>
       <c r="F10" s="13">
         <f>D10+E10</f>
@@ -975,7 +989,10 @@
       <c r="A11" s="12" t="n"/>
       <c r="B11" s="12" t="n"/>
       <c r="C11" s="15" t="n"/>
-      <c r="D11" s="13" t="n"/>
+      <c r="D11" s="13">
+        <f>LEWIS!D610</f>
+        <v/>
+      </c>
       <c r="E11" s="50" t="n"/>
       <c r="F11" s="13">
         <f>D11+E11</f>
@@ -986,7 +1003,10 @@
       <c r="A12" s="12" t="n"/>
       <c r="B12" s="12" t="n"/>
       <c r="C12" s="12" t="n"/>
-      <c r="D12" s="13" t="n"/>
+      <c r="D12" s="13">
+        <f>MCLAREN!D468</f>
+        <v/>
+      </c>
       <c r="E12" s="50" t="n"/>
       <c r="F12" s="13">
         <f>D12+E12</f>
@@ -997,7 +1017,10 @@
       <c r="A13" s="12" t="n"/>
       <c r="B13" s="15" t="n"/>
       <c r="C13" s="15" t="n"/>
-      <c r="D13" s="13" t="n"/>
+      <c r="D13" s="13">
+        <f>PATTON!D565</f>
+        <v/>
+      </c>
       <c r="E13" s="50" t="n"/>
       <c r="F13" s="13">
         <f>D13+E13</f>
@@ -1008,7 +1031,10 @@
       <c r="A14" s="12" t="n"/>
       <c r="B14" s="12" t="n"/>
       <c r="C14" s="12" t="n"/>
-      <c r="D14" s="13" t="n"/>
+      <c r="D14" s="13">
+        <f>PERRY!D606</f>
+        <v/>
+      </c>
       <c r="E14" s="50" t="n"/>
       <c r="F14" s="13">
         <f>D14+E14</f>
@@ -1031,8 +1057,9 @@
           <t>BUNGALOW 1</t>
         </is>
       </c>
-      <c r="D15" s="13" t="n">
-        <v>20184.69000000002</v>
+      <c r="D15" s="13">
+        <f>SAYLE!D321</f>
+        <v/>
       </c>
       <c r="E15" s="50" t="n">
         <v>43.7</v>
@@ -1058,8 +1085,9 @@
           <t>BUNGALOW 1</t>
         </is>
       </c>
-      <c r="D16" s="13" t="n">
-        <v>13342.53000000002</v>
+      <c r="D16" s="13">
+        <f>SHIMMIN!D87</f>
+        <v/>
       </c>
       <c r="E16" s="50" t="n">
         <v>43.7</v>
@@ -1085,8 +1113,9 @@
           <t>SPRING MEADOWS</t>
         </is>
       </c>
-      <c r="D17" s="13" t="n">
-        <v>7340.239999999995</v>
+      <c r="D17" s="13">
+        <f>SMITH!D598</f>
+        <v/>
       </c>
       <c r="E17" s="50" t="n">
         <v>43.7</v>
@@ -1112,8 +1141,9 @@
           <t>COOILLEEN</t>
         </is>
       </c>
-      <c r="D18" s="13" t="n">
-        <v>0</v>
+      <c r="D18" s="13">
+        <f>WARD!D607</f>
+        <v/>
       </c>
       <c r="E18" s="13" t="n"/>
       <c r="F18" s="13">
@@ -1130,7 +1160,7 @@
       <c r="B19" s="63" t="n"/>
       <c r="C19" s="43" t="n"/>
       <c r="D19" s="48">
-        <f>SUM(D9:D17)</f>
+        <f>WEST!D66</f>
         <v/>
       </c>
       <c r="E19" s="48">
@@ -1177,6 +1207,7 @@
       <c r="E23" s="20" t="n"/>
       <c r="F23" s="47" t="n"/>
     </row>
+    <row r="24"/>
     <row r="25" ht="14.1" customHeight="1">
       <c r="D25" s="46" t="n"/>
     </row>
@@ -1206,7 +1237,7 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.125" defaultRowHeight="14.1" customHeight="1" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.125" defaultRowHeight="14.1" customHeight="1"/>
   <cols>
     <col width="17" customWidth="1" style="1" min="1" max="2"/>
     <col width="21.125" bestFit="1" customWidth="1" style="1" min="3" max="3"/>
@@ -1675,7 +1706,7 @@
       <selection activeCell="F8" sqref="F8:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.125" defaultRowHeight="14.1" customHeight="1" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.125" defaultRowHeight="14.1" customHeight="1"/>
   <cols>
     <col width="17" customWidth="1" style="1" min="1" max="2"/>
     <col width="22.625" bestFit="1" customWidth="1" style="1" min="3" max="3"/>
@@ -2129,7 +2160,7 @@
     <row r="28" ht="14.1" customHeight="1">
       <c r="G28" s="1" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
